--- a/employee_data.xlsx
+++ b/employee_data.xlsx
@@ -555,7 +555,11 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>125545</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
